--- a/comparisonFiles/Data MATLAB/Simulacion/DataSimMATLAB.xlsx
+++ b/comparisonFiles/Data MATLAB/Simulacion/DataSimMATLAB.xlsx
@@ -565,7 +565,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,7 @@
         <v>0.19685945218759601</v>
       </c>
       <c r="I2" s="6">
-        <v>0.50392460823059004</v>
+        <v>0.80835738505953203</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>0.48336914653198998</v>
       </c>
       <c r="I3" s="6">
-        <v>0.50392484664916903</v>
+        <v>0.59145229122494702</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>0.38120481032020898</v>
       </c>
       <c r="I4" s="6">
-        <v>0.55666136741638095</v>
+        <v>0.52639073649588597</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>1.12375246728095</v>
       </c>
       <c r="I7" s="9">
-        <v>15.0640499591827</v>
+        <v>2.5210337555198099</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>0.809350567723366</v>
       </c>
       <c r="I10" s="9">
-        <v>2.2071149349212602</v>
+        <v>0.41737740556553699</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>0.96211852185043201</v>
       </c>
       <c r="I13" s="9">
-        <v>2.2149274349212602</v>
+        <v>0.54058373742891996</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>0.68702652329372305</v>
       </c>
       <c r="I14" s="9">
-        <v>1.8262414932250901</v>
+        <v>0.56066093329653799</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1033,7 +1033,7 @@
         <v>1.3267946805478901</v>
       </c>
       <c r="I16" s="9">
-        <v>3.15637111663818</v>
+        <v>0.68684069528846103</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>0.83678875944907105</v>
       </c>
       <c r="I17" s="15">
-        <v>6.7981116771697998</v>
+        <v>0.675652400825275</v>
       </c>
     </row>
   </sheetData>

--- a/comparisonFiles/Data MATLAB/Simulacion/DataSimMATLAB.xlsx
+++ b/comparisonFiles/Data MATLAB/Simulacion/DataSimMATLAB.xlsx
@@ -230,7 +230,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,14 +247,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -565,7 +559,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H13" sqref="H13:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +575,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -616,10 +610,10 @@
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -631,10 +625,10 @@
       <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="7">
         <v>0.19685945218759601</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="7">
         <v>0.80835738505953203</v>
       </c>
     </row>
@@ -645,10 +639,10 @@
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -657,13 +651,13 @@
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>0.48336914653198998</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <v>0.59145229122494702</v>
       </c>
     </row>
@@ -674,10 +668,10 @@
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -686,13 +680,13 @@
       <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <v>0.38120481032020898</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>0.52639073649588597</v>
       </c>
     </row>
@@ -703,10 +697,10 @@
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -715,10 +709,10 @@
       <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -732,10 +726,10 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -744,8 +738,8 @@
       <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9">
+      <c r="G6" s="6"/>
+      <c r="H6" s="7">
         <v>1.0194427558904</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -759,10 +753,10 @@
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -771,13 +765,13 @@
       <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>1.12375246728095</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>2.5210337555198099</v>
       </c>
     </row>
@@ -788,10 +782,10 @@
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -800,11 +794,11 @@
       <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9">
+      <c r="G8" s="6"/>
+      <c r="H8" s="7">
         <v>1.0554074801087501</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -815,10 +809,10 @@
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -827,13 +821,13 @@
       <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="G9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -844,10 +838,10 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -856,13 +850,13 @@
       <c r="F10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>0.809350567723366</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>0.41737740556553699</v>
       </c>
     </row>
@@ -873,10 +867,10 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -885,11 +879,11 @@
       <c r="F11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="9">
+      <c r="G11" s="6"/>
+      <c r="H11" s="7">
         <v>0.68828478495372603</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -900,10 +894,10 @@
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -912,13 +906,13 @@
       <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="10" t="s">
+      <c r="G12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -929,10 +923,10 @@
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -941,13 +935,13 @@
       <c r="F13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="7">
         <v>0.96211852185043201</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>0.54058373742891996</v>
       </c>
     </row>
@@ -958,10 +952,10 @@
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -970,13 +964,13 @@
       <c r="F14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <v>0.68702652329372305</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>0.56066093329653799</v>
       </c>
     </row>
@@ -987,10 +981,10 @@
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -999,11 +993,11 @@
       <c r="F15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9">
+      <c r="G15" s="6"/>
+      <c r="H15" s="7">
         <v>1.6411166433940301</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1014,10 +1008,10 @@
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1026,42 +1020,42 @@
       <c r="F16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="7">
         <v>1.3267946805478901</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="7">
         <v>0.68684069528846103</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="C17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="13">
         <v>0.83678875944907105</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="13">
         <v>0.675652400825275</v>
       </c>
     </row>

--- a/comparisonFiles/Data MATLAB/Simulacion/DataSimMATLAB.xlsx
+++ b/comparisonFiles/Data MATLAB/Simulacion/DataSimMATLAB.xlsx
@@ -559,7 +559,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H17"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +857,7 @@
         <v>0.809350567723366</v>
       </c>
       <c r="I10" s="7">
-        <v>0.41737740556553699</v>
+        <v>0.48878500567329802</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
